--- a/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results.xlsx
+++ b/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialLFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B6B2D2-137D-42EE-9F47-C6AE017F8499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75B028B-9ADC-4608-9E14-902175F70E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-27405" yWindow="1530" windowWidth="21600" windowHeight="12585" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5418,6 +5418,15 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5445,17 +5454,8 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -19593,7 +19593,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="45720" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -19961,8 +19961,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -20007,32 +20007,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -20048,12 +20048,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -20061,12 +20061,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -20074,12 +20074,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -20087,12 +20087,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -20100,12 +20100,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20153,112 +20153,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="s">
+      <c r="C14" s="158"/>
+      <c r="D14" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="s">
+      <c r="C15" s="158"/>
+      <c r="D15" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="158"/>
+      <c r="D16" s="157" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="168" t="s">
+      <c r="C17" s="158"/>
+      <c r="D17" s="156" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="158"/>
+      <c r="D18" s="168">
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20446,16 +20446,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24408,16 +24408,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24428,6 +24418,16 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="between">
@@ -24467,8 +24467,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -24513,32 +24513,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -24554,12 +24554,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24567,12 +24567,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24580,12 +24580,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24593,12 +24593,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24606,12 +24606,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24659,117 +24659,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="158"/>
+      <c r="D13" s="157" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="158"/>
+      <c r="D14" s="157" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="158"/>
+      <c r="D15" s="157" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="158"/>
+      <c r="D16" s="157" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167" t="str">
+      <c r="C17" s="158"/>
+      <c r="D17" s="157" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="158"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24957,16 +24957,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28892,13 +28892,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28912,6 +28905,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
@@ -28951,8 +28951,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -28997,32 +28997,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -29038,12 +29038,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -29051,12 +29051,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -29064,12 +29064,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -29077,12 +29077,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -29090,12 +29090,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -29143,117 +29143,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="158"/>
+      <c r="D13" s="157" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="158"/>
+      <c r="D14" s="157" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="158"/>
+      <c r="D15" s="157" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="158"/>
+      <c r="D16" s="157" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167" t="str">
+      <c r="C17" s="158"/>
+      <c r="D17" s="157" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="158"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29441,16 +29441,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33376,13 +33376,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33396,6 +33389,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="between">
@@ -33434,8 +33434,8 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
@@ -33481,32 +33481,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -33522,12 +33522,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33535,12 +33535,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33548,12 +33548,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33561,12 +33561,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33574,12 +33574,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33627,117 +33627,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="167" t="str">
+      <c r="C13" s="158"/>
+      <c r="D13" s="157" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="167" t="str">
+      <c r="C14" s="158"/>
+      <c r="D14" s="157" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="167" t="str">
+      <c r="C15" s="158"/>
+      <c r="D15" s="157" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167" t="str">
+      <c r="C16" s="158"/>
+      <c r="D16" s="157" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167" t="str">
+      <c r="C17" s="158"/>
+      <c r="D17" s="157" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166">
+      <c r="C18" s="158"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33925,16 +33925,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37860,13 +37860,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37880,6 +37873,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="between">
@@ -37916,7 +37916,7 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:AG135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
@@ -44873,14 +44873,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -45133,6 +45125,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
@@ -45142,23 +45142,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45175,4 +45158,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results.xlsx
+++ b/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialLFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75B028B-9ADC-4608-9E14-902175F70E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0751E994-FF47-4DF0-A005-07EEE45E7D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5418,13 +5418,34 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5435,27 +5456,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -19593,7 +19593,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="45720" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -20048,12 +20048,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -20061,12 +20061,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="167"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -20074,12 +20074,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -20087,12 +20087,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -20100,12 +20100,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="167"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20153,112 +20153,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="157" t="s">
+      <c r="C13" s="159"/>
+      <c r="D13" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="157" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="157" t="s">
+      <c r="C15" s="159"/>
+      <c r="D15" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="157" t="str">
+      <c r="C16" s="159"/>
+      <c r="D16" s="161" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="156" t="s">
+      <c r="C17" s="159"/>
+      <c r="D17" s="165" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="168">
+      <c r="C18" s="159"/>
+      <c r="D18" s="160">
         <v>45432</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20446,16 +20446,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="161"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="168"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24408,6 +24408,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24418,16 +24424,10 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="between">
@@ -24554,12 +24554,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24567,12 +24567,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="167"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24580,12 +24580,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24593,12 +24593,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24606,12 +24606,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="167"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24659,117 +24659,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="157" t="str">
+      <c r="C13" s="159"/>
+      <c r="D13" s="161" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="157" t="str">
+      <c r="C14" s="159"/>
+      <c r="D14" s="161" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="157" t="str">
+      <c r="C15" s="159"/>
+      <c r="D15" s="161" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="157" t="str">
+      <c r="C16" s="159"/>
+      <c r="D16" s="161" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="157" t="str">
+      <c r="C17" s="159"/>
+      <c r="D17" s="161" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="168">
+      <c r="C18" s="159"/>
+      <c r="D18" s="160">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24957,16 +24957,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="161"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="168"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28892,6 +28892,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28905,13 +28912,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
@@ -29038,12 +29038,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -29051,12 +29051,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="167"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -29064,12 +29064,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -29077,12 +29077,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -29090,12 +29090,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="167"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -29143,117 +29143,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="157" t="str">
+      <c r="C13" s="159"/>
+      <c r="D13" s="161" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="157" t="str">
+      <c r="C14" s="159"/>
+      <c r="D14" s="161" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="157" t="str">
+      <c r="C15" s="159"/>
+      <c r="D15" s="161" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="157" t="str">
+      <c r="C16" s="159"/>
+      <c r="D16" s="161" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="157" t="str">
+      <c r="C17" s="159"/>
+      <c r="D17" s="161" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="168">
+      <c r="C18" s="159"/>
+      <c r="D18" s="160">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29441,16 +29441,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="161"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="168"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33376,6 +33376,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33389,13 +33396,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="between">
@@ -33434,7 +33434,7 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
@@ -33522,12 +33522,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="167"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33535,12 +33535,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="167"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33548,12 +33548,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33561,12 +33561,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33574,12 +33574,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="167"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33627,117 +33627,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="157" t="str">
+      <c r="C13" s="159"/>
+      <c r="D13" s="161" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="157" t="str">
+      <c r="C14" s="159"/>
+      <c r="D14" s="161" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="157" t="str">
+      <c r="C15" s="159"/>
+      <c r="D15" s="161" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="157" t="str">
+      <c r="C16" s="159"/>
+      <c r="D16" s="161" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="157" t="str">
+      <c r="C17" s="159"/>
+      <c r="D17" s="161" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="168">
+      <c r="C18" s="159"/>
+      <c r="D18" s="160">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33925,16 +33925,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="161"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="168"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37860,6 +37860,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37873,13 +37880,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="between">
@@ -37916,8 +37916,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:AG135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -44864,12 +44864,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45126,17 +45125,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45161,18 +45170,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>